--- a/example/Initial Dataset.xlsx
+++ b/example/Initial Dataset.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="142">
   <si>
     <t>Custom Segment Name</t>
   </si>
@@ -83,15 +83,18 @@
     <t>ROI_ID</t>
   </si>
   <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
     <t>Scan_ID_1</t>
   </si>
   <si>
     <t>ROI_ID_1</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>AOI_size</t>
   </si>
   <si>
@@ -281,9 +284,6 @@
     <t>PanCK</t>
   </si>
   <si>
-    <t>PanCK,PanCK</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -296,6 +296,9 @@
     <t>200</t>
   </si>
   <si>
+    <t>Tumour</t>
+  </si>
+  <si>
     <t>Protein Training Scan 2 | 001 | PanCK-</t>
   </si>
   <si>
@@ -305,7 +308,7 @@
     <t>PanCK-</t>
   </si>
   <si>
-    <t>PanCK-,PanCK-</t>
+    <t>TME</t>
   </si>
   <si>
     <t>Protein Training Scan 2 | 002 | PanCK</t>
@@ -517,49 +520,49 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
@@ -567,49 +570,49 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -617,49 +620,49 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4">
@@ -667,49 +670,49 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5">
@@ -717,49 +720,49 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
@@ -1433,158 +1436,158 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K22" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M22" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="N22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O22" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q22" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="R22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="S22" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="L23" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="M23" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="N23" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="O23" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="Q23" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="R23" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="S23" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -1592,52 +1595,52 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H24" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="J24" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="K24" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="L24" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="M24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N24" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O24" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="Q24" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="R24" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="S24" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25">
@@ -1645,1546 +1648,1599 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" t="s">
+        <v>123</v>
+      </c>
+      <c r="N25" t="s">
+        <v>123</v>
+      </c>
+      <c r="O25" t="s">
+        <v>123</v>
+      </c>
+      <c r="P25" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>123</v>
+      </c>
+      <c r="R25" t="s">
+        <v>123</v>
+      </c>
+      <c r="S25" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" t="n">
-        <v>742.6194993597943</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>95.6067020133867</v>
-      </c>
-      <c r="H26" t="n">
-        <v>832.6676721863562</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>219.00604996089743</v>
-      </c>
-      <c r="K26" t="n">
-        <v>16624.449091955634</v>
-      </c>
-      <c r="L26" t="n">
-        <v>10964.754673930616</v>
-      </c>
-      <c r="M26" t="n">
-        <v>3256.1863976419722</v>
-      </c>
-      <c r="N26" t="n">
-        <v>26956.643144425587</v>
-      </c>
-      <c r="O26" t="n">
-        <v>31224.481854069676</v>
-      </c>
-      <c r="P26" t="n">
-        <v>15094.741859741447</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>28653.344156374984</v>
-      </c>
-      <c r="R26" t="n">
-        <v>27139.36862099899</v>
-      </c>
-      <c r="S26" t="n">
-        <v>55935.062668349565</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E27" t="n">
-        <v>37.31001947652615</v>
+        <v>742.6194993597943</v>
       </c>
       <c r="F27" t="n">
         <v>1.0</v>
       </c>
       <c r="G27" t="n">
-        <v>3.2920605420464253</v>
+        <v>95.6067020133867</v>
       </c>
       <c r="H27" t="n">
-        <v>42.79678704660353</v>
+        <v>832.6676721863562</v>
       </c>
       <c r="I27" t="n">
         <v>1.0</v>
       </c>
       <c r="J27" t="n">
-        <v>7.681474598108325</v>
+        <v>219.00604996089743</v>
       </c>
       <c r="K27" t="n">
-        <v>127.29300762579511</v>
+        <v>16624.449091955634</v>
       </c>
       <c r="L27" t="n">
-        <v>75.71739246706778</v>
+        <v>10964.754673930616</v>
       </c>
       <c r="M27" t="n">
-        <v>29.628544878417827</v>
+        <v>3256.1863976419722</v>
       </c>
       <c r="N27" t="n">
-        <v>735.2268543903683</v>
+        <v>26956.643144425587</v>
       </c>
       <c r="O27" t="n">
-        <v>178.86862278452244</v>
+        <v>31224.481854069676</v>
       </c>
       <c r="P27" t="n">
-        <v>201.91304657884743</v>
+        <v>15094.741859741447</v>
       </c>
       <c r="Q27" t="n">
-        <v>185.3530836172368</v>
+        <v>28653.344156374984</v>
       </c>
       <c r="R27" t="n">
-        <v>643.3419198566526</v>
+        <v>27139.36862099899</v>
       </c>
       <c r="S27" t="n">
-        <v>291.26913139851496</v>
+        <v>55935.062668349565</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E28" t="n">
-        <v>51.833431378118185</v>
+        <v>37.31001947652615</v>
       </c>
       <c r="F28" t="n">
-        <v>10.078722767967426</v>
+        <v>1.0</v>
       </c>
       <c r="G28" t="n">
-        <v>12.238449075389017</v>
+        <v>3.2920605420464253</v>
       </c>
       <c r="H28" t="n">
-        <v>65.51169799178827</v>
+        <v>42.79678704660353</v>
       </c>
       <c r="I28" t="n">
         <v>1.0</v>
       </c>
       <c r="J28" t="n">
-        <v>14.398175382810606</v>
+        <v>7.681474598108325</v>
       </c>
       <c r="K28" t="n">
-        <v>209.49345181989435</v>
+        <v>127.29300762579511</v>
       </c>
       <c r="L28" t="n">
-        <v>118.06503813904698</v>
+        <v>75.71739246706778</v>
       </c>
       <c r="M28" t="n">
-        <v>49.6737050706966</v>
+        <v>29.628544878417827</v>
       </c>
       <c r="N28" t="n">
-        <v>246.9287078152019</v>
+        <v>735.2268543903683</v>
       </c>
       <c r="O28" t="n">
-        <v>193.65545889880266</v>
+        <v>178.86862278452244</v>
       </c>
       <c r="P28" t="n">
-        <v>138.22248367498185</v>
+        <v>201.91304657884743</v>
       </c>
       <c r="Q28" t="n">
-        <v>226.97694885710172</v>
+        <v>185.3530836172368</v>
       </c>
       <c r="R28" t="n">
-        <v>244.69633891657804</v>
+        <v>643.3419198566526</v>
       </c>
       <c r="S28" t="n">
-        <v>331.6057282559144</v>
+        <v>291.26913139851496</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E29" t="n">
-        <v>50421.57816270854</v>
+        <v>51.833431378118185</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9986646232388944</v>
+        <v>10.078722767967426</v>
       </c>
       <c r="G29" t="n">
-        <v>4385.136360641985</v>
+        <v>12.238449075389017</v>
       </c>
       <c r="H29" t="n">
-        <v>57315.36005692663</v>
+        <v>65.51169799178827</v>
       </c>
       <c r="I29" t="n">
         <v>1.0</v>
       </c>
       <c r="J29" t="n">
-        <v>14587.49415165053</v>
+        <v>14.398175382810606</v>
       </c>
       <c r="K29" t="n">
-        <v>166377.5262315998</v>
+        <v>209.49345181989435</v>
       </c>
       <c r="L29" t="n">
-        <v>107599.1225016282</v>
+        <v>118.06503813904698</v>
       </c>
       <c r="M29" t="n">
-        <v>32920.979305070156</v>
+        <v>49.6737050706966</v>
       </c>
       <c r="N29" t="n">
-        <v>4021.6224377830276</v>
+        <v>246.9287078152019</v>
       </c>
       <c r="O29" t="n">
-        <v>3101.852319780006</v>
+        <v>193.65545889880266</v>
       </c>
       <c r="P29" t="n">
-        <v>3295.5932566883516</v>
+        <v>138.22248367498185</v>
       </c>
       <c r="Q29" t="n">
-        <v>6480.464131677293</v>
+        <v>226.97694885710172</v>
       </c>
       <c r="R29" t="n">
-        <v>3492.9954433118082</v>
+        <v>244.69633891657804</v>
       </c>
       <c r="S29" t="n">
-        <v>4048.1027069163288</v>
+        <v>331.6057282559144</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E30" t="n">
-        <v>396.8219031340232</v>
+        <v>50421.57816270854</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9293253000796796</v>
+        <v>0.9986646232388944</v>
       </c>
       <c r="G30" t="n">
-        <v>37.17301200318718</v>
+        <v>4385.136360641985</v>
       </c>
       <c r="H30" t="n">
-        <v>512.0582403439034</v>
+        <v>57315.36005692663</v>
       </c>
       <c r="I30" t="n">
         <v>1.0</v>
       </c>
       <c r="J30" t="n">
-        <v>113.37768660972091</v>
+        <v>14587.49415165053</v>
       </c>
       <c r="K30" t="n">
-        <v>1697.8773232455746</v>
+        <v>166377.5262315998</v>
       </c>
       <c r="L30" t="n">
-        <v>785.2798785673293</v>
+        <v>107599.1225016282</v>
       </c>
       <c r="M30" t="n">
-        <v>299.2427466256568</v>
+        <v>32920.979305070156</v>
       </c>
       <c r="N30" t="n">
-        <v>3087.2186468646955</v>
+        <v>4021.6224377830276</v>
       </c>
       <c r="O30" t="n">
-        <v>2451.560141610195</v>
+        <v>3101.852319780006</v>
       </c>
       <c r="P30" t="n">
-        <v>1451.6061187244595</v>
+        <v>3295.5932566883516</v>
       </c>
       <c r="Q30" t="n">
-        <v>2173.6001139961168</v>
+        <v>6480.464131677293</v>
       </c>
       <c r="R30" t="n">
-        <v>2799.960054038617</v>
+        <v>3492.9954433118082</v>
       </c>
       <c r="S30" t="n">
-        <v>4071.8439258479457</v>
+        <v>4048.1027069163288</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E31" t="n">
-        <v>3198.0346098238683</v>
+        <v>396.8219031340232</v>
       </c>
       <c r="F31" t="n">
-        <v>1.0</v>
+        <v>0.9293253000796796</v>
       </c>
       <c r="G31" t="n">
-        <v>3076.302235846226</v>
+        <v>37.17301200318718</v>
       </c>
       <c r="H31" t="n">
-        <v>8772.694726557043</v>
+        <v>512.0582403439034</v>
       </c>
       <c r="I31" t="n">
-        <v>1.1376857381088112</v>
+        <v>1.0</v>
       </c>
       <c r="J31" t="n">
-        <v>6430.199791791001</v>
+        <v>113.37768660972091</v>
       </c>
       <c r="K31" t="n">
-        <v>3614.427589971693</v>
+        <v>1697.8773232455746</v>
       </c>
       <c r="L31" t="n">
-        <v>9183.399278014323</v>
+        <v>785.2798785673293</v>
       </c>
       <c r="M31" t="n">
-        <v>8747.66564031865</v>
+        <v>299.2427466256568</v>
       </c>
       <c r="N31" t="n">
-        <v>3815.7979656169528</v>
+        <v>3087.2186468646955</v>
       </c>
       <c r="O31" t="n">
-        <v>1971.60938414257</v>
+        <v>2451.560141610195</v>
       </c>
       <c r="P31" t="n">
-        <v>8472.345691696317</v>
+        <v>1451.6061187244595</v>
       </c>
       <c r="Q31" t="n">
-        <v>2665.6365153614584</v>
+        <v>2173.6001139961168</v>
       </c>
       <c r="R31" t="n">
-        <v>6892.703504805832</v>
+        <v>2799.960054038617</v>
       </c>
       <c r="S31" t="n">
-        <v>2778.58721516491</v>
+        <v>4071.8439258479457</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E32" t="n">
-        <v>395.0588283337129</v>
+        <v>3198.0346098238683</v>
       </c>
       <c r="F32" t="n">
         <v>1.0</v>
       </c>
       <c r="G32" t="n">
-        <v>28.21848773812235</v>
+        <v>3076.302235846226</v>
       </c>
       <c r="H32" t="n">
-        <v>449.3251509070251</v>
+        <v>8772.694726557043</v>
       </c>
       <c r="I32" t="n">
-        <v>1.0</v>
+        <v>1.1376857381088112</v>
       </c>
       <c r="J32" t="n">
-        <v>104.19133934075944</v>
+        <v>6430.199791791001</v>
       </c>
       <c r="K32" t="n">
-        <v>7294.479080304627</v>
+        <v>3614.427589971693</v>
       </c>
       <c r="L32" t="n">
-        <v>4037.4143994544283</v>
+        <v>9183.399278014323</v>
       </c>
       <c r="M32" t="n">
-        <v>1417.436345614915</v>
+        <v>8747.66564031865</v>
       </c>
       <c r="N32" t="n">
-        <v>3071.473857649471</v>
+        <v>3815.7979656169528</v>
       </c>
       <c r="O32" t="n">
-        <v>2730.6813518890704</v>
+        <v>1971.60938414257</v>
       </c>
       <c r="P32" t="n">
-        <v>1648.610879777225</v>
+        <v>8472.345691696317</v>
       </c>
       <c r="Q32" t="n">
-        <v>2291.0653598946988</v>
+        <v>2665.6365153614584</v>
       </c>
       <c r="R32" t="n">
-        <v>3790.1213391949386</v>
+        <v>6892.703504805832</v>
       </c>
       <c r="S32" t="n">
-        <v>7674.971297277254</v>
+        <v>2778.58721516491</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E33" t="n">
-        <v>188.41347255070374</v>
+        <v>395.0588283337129</v>
       </c>
       <c r="F33" t="n">
-        <v>1.9424069335124097</v>
+        <v>1.0</v>
       </c>
       <c r="G33" t="n">
-        <v>15.539255468099277</v>
+        <v>28.21848773812235</v>
       </c>
       <c r="H33" t="n">
-        <v>222.4055938871709</v>
+        <v>449.3251509070251</v>
       </c>
       <c r="I33" t="n">
         <v>1.0</v>
       </c>
       <c r="J33" t="n">
-        <v>51.47378373807886</v>
+        <v>104.19133934075944</v>
       </c>
       <c r="K33" t="n">
-        <v>678.8712232625871</v>
+        <v>7294.479080304627</v>
       </c>
       <c r="L33" t="n">
-        <v>368.0861139006016</v>
+        <v>4037.4143994544283</v>
       </c>
       <c r="M33" t="n">
-        <v>137.91089227938107</v>
+        <v>1417.436345614915</v>
       </c>
       <c r="N33" t="n">
-        <v>740.0570416682281</v>
+        <v>3071.473857649471</v>
       </c>
       <c r="O33" t="n">
-        <v>684.6984440631244</v>
+        <v>2730.6813518890704</v>
       </c>
       <c r="P33" t="n">
-        <v>472.97608831027173</v>
+        <v>1648.610879777225</v>
       </c>
       <c r="Q33" t="n">
-        <v>691.5022479400805</v>
+        <v>2291.0653598946988</v>
       </c>
       <c r="R33" t="n">
-        <v>628.1887373990717</v>
+        <v>3790.1213391949386</v>
       </c>
       <c r="S33" t="n">
-        <v>968.4988565569939</v>
+        <v>7674.971297277254</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E34" t="n">
-        <v>625.5663618084066</v>
+        <v>188.41347255070374</v>
       </c>
       <c r="F34" t="n">
-        <v>1.0785626927731147</v>
+        <v>1.9424069335124097</v>
       </c>
       <c r="G34" t="n">
-        <v>80.8922019579836</v>
+        <v>15.539255468099277</v>
       </c>
       <c r="H34" t="n">
-        <v>783.0365149532812</v>
+        <v>222.4055938871709</v>
       </c>
       <c r="I34" t="n">
         <v>1.0</v>
       </c>
       <c r="J34" t="n">
-        <v>171.49146815092524</v>
+        <v>51.47378373807886</v>
       </c>
       <c r="K34" t="n">
-        <v>2123.689942070263</v>
+        <v>678.8712232625871</v>
       </c>
       <c r="L34" t="n">
-        <v>1624.3154153163107</v>
+        <v>368.0861139006016</v>
       </c>
       <c r="M34" t="n">
-        <v>433.5822024947921</v>
+        <v>137.91089227938107</v>
       </c>
       <c r="N34" t="n">
-        <v>1601.6655987680754</v>
+        <v>740.0570416682281</v>
       </c>
       <c r="O34" t="n">
-        <v>1575.7800941415205</v>
+        <v>684.6984440631244</v>
       </c>
       <c r="P34" t="n">
-        <v>993.3562400440386</v>
+        <v>472.97608831027173</v>
       </c>
       <c r="Q34" t="n">
-        <v>1620.8323955911083</v>
+        <v>691.5022479400805</v>
       </c>
       <c r="R34" t="n">
-        <v>1454.3574866551596</v>
+        <v>628.1887373990717</v>
       </c>
       <c r="S34" t="n">
-        <v>2361.2882788951747</v>
+        <v>968.4988565569939</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E35" t="n">
-        <v>1789.5744340050176</v>
+        <v>625.5663618084066</v>
       </c>
       <c r="F35" t="n">
-        <v>1.0</v>
+        <v>1.0785626927731147</v>
       </c>
       <c r="G35" t="n">
-        <v>206.01095786764972</v>
+        <v>80.8922019579836</v>
       </c>
       <c r="H35" t="n">
-        <v>2017.3525874209472</v>
+        <v>783.0365149532812</v>
       </c>
       <c r="I35" t="n">
         <v>1.0</v>
       </c>
       <c r="J35" t="n">
-        <v>344.38812956742953</v>
+        <v>171.49146815092524</v>
       </c>
       <c r="K35" t="n">
-        <v>1711.8344499040177</v>
+        <v>2123.689942070263</v>
       </c>
       <c r="L35" t="n">
-        <v>924.3284109608887</v>
+        <v>1624.3154153163107</v>
       </c>
       <c r="M35" t="n">
-        <v>330.39493242924954</v>
+        <v>433.5822024947921</v>
       </c>
       <c r="N35" t="n">
-        <v>6401.110290876331</v>
+        <v>1601.6655987680754</v>
       </c>
       <c r="O35" t="n">
-        <v>7585.090248734559</v>
+        <v>1575.7800941415205</v>
       </c>
       <c r="P35" t="n">
-        <v>3132.1439594292856</v>
+        <v>993.3562400440386</v>
       </c>
       <c r="Q35" t="n">
-        <v>6102.053646753337</v>
+        <v>1620.8323955911083</v>
       </c>
       <c r="R35" t="n">
-        <v>7810.096793120702</v>
+        <v>1454.3574866551596</v>
       </c>
       <c r="S35" t="n">
-        <v>21012.677999507378</v>
+        <v>2361.2882788951747</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E36" t="n">
-        <v>1791.4504751996067</v>
+        <v>1789.5744340050176</v>
       </c>
       <c r="F36" t="n">
-        <v>2.023094833652859</v>
+        <v>1.0</v>
       </c>
       <c r="G36" t="n">
-        <v>193.20555661384805</v>
+        <v>206.01095786764972</v>
       </c>
       <c r="H36" t="n">
-        <v>2125.2611227523284</v>
+        <v>2017.3525874209472</v>
       </c>
       <c r="I36" t="n">
         <v>1.0</v>
       </c>
       <c r="J36" t="n">
-        <v>440.02312631949684</v>
+        <v>344.38812956742953</v>
       </c>
       <c r="K36" t="n">
-        <v>2988.111069305273</v>
+        <v>1711.8344499040177</v>
       </c>
       <c r="L36" t="n">
-        <v>1566.8869486641395</v>
+        <v>924.3284109608887</v>
       </c>
       <c r="M36" t="n">
-        <v>556.3510792545362</v>
+        <v>330.39493242924954</v>
       </c>
       <c r="N36" t="n">
-        <v>2669.4736330049477</v>
+        <v>6401.110290876331</v>
       </c>
       <c r="O36" t="n">
-        <v>2167.7461142590387</v>
+        <v>7585.090248734559</v>
       </c>
       <c r="P36" t="n">
-        <v>1526.4250519910822</v>
+        <v>3132.1439594292856</v>
       </c>
       <c r="Q36" t="n">
-        <v>2508.3938774700596</v>
+        <v>6102.053646753337</v>
       </c>
       <c r="R36" t="n">
-        <v>2407.371167946497</v>
+        <v>7810.096793120702</v>
       </c>
       <c r="S36" t="n">
-        <v>3439.8232592773065</v>
+        <v>21012.677999507378</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E37" t="n">
-        <v>48198.27123896891</v>
+        <v>1791.4504751996067</v>
       </c>
       <c r="F37" t="n">
-        <v>5.6419758438648815</v>
+        <v>2.023094833652859</v>
       </c>
       <c r="G37" t="n">
-        <v>4213.427560198294</v>
+        <v>193.20555661384805</v>
       </c>
       <c r="H37" t="n">
-        <v>56877.88687717064</v>
+        <v>2125.2611227523284</v>
       </c>
       <c r="I37" t="n">
         <v>1.0</v>
       </c>
       <c r="J37" t="n">
-        <v>11330.215889649455</v>
+        <v>440.02312631949684</v>
       </c>
       <c r="K37" t="n">
-        <v>184014.17054282187</v>
+        <v>2988.111069305273</v>
       </c>
       <c r="L37" t="n">
-        <v>96211.48567025905</v>
+        <v>1566.8869486641395</v>
       </c>
       <c r="M37" t="n">
-        <v>35282.66013719342</v>
+        <v>556.3510792545362</v>
       </c>
       <c r="N37" t="n">
-        <v>199540.88806513805</v>
+        <v>2669.4736330049477</v>
       </c>
       <c r="O37" t="n">
-        <v>192653.16395494778</v>
+        <v>2167.7461142590387</v>
       </c>
       <c r="P37" t="n">
-        <v>130516.95559129507</v>
+        <v>1526.4250519910822</v>
       </c>
       <c r="Q37" t="n">
-        <v>203783.2177626016</v>
+        <v>2508.3938774700596</v>
       </c>
       <c r="R37" t="n">
-        <v>153220.13688855295</v>
+        <v>2407.371167946497</v>
       </c>
       <c r="S37" t="n">
-        <v>242705.16474539417</v>
+        <v>3439.8232592773065</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E38" t="n">
-        <v>612.2367748639466</v>
+        <v>48198.27123896891</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9874786691353977</v>
+        <v>5.6419758438648815</v>
       </c>
       <c r="G38" t="n">
-        <v>49.37393345676988</v>
+        <v>4213.427560198294</v>
       </c>
       <c r="H38" t="n">
-        <v>673.4604523503413</v>
+        <v>56877.88687717064</v>
       </c>
       <c r="I38" t="n">
         <v>1.0</v>
       </c>
       <c r="J38" t="n">
-        <v>139.23449234809107</v>
+        <v>11330.215889649455</v>
       </c>
       <c r="K38" t="n">
-        <v>2109.2544372732095</v>
+        <v>184014.17054282187</v>
       </c>
       <c r="L38" t="n">
-        <v>1194.8491896538312</v>
+        <v>96211.48567025905</v>
       </c>
       <c r="M38" t="n">
-        <v>382.1542449553989</v>
+        <v>35282.66013719342</v>
       </c>
       <c r="N38" t="n">
-        <v>2286.013119048446</v>
+        <v>199540.88806513805</v>
       </c>
       <c r="O38" t="n">
-        <v>2139.866276016407</v>
+        <v>192653.16395494778</v>
       </c>
       <c r="P38" t="n">
-        <v>1226.448507066164</v>
+        <v>130516.95559129507</v>
       </c>
       <c r="Q38" t="n">
-        <v>1627.4831522427633</v>
+        <v>203783.2177626016</v>
       </c>
       <c r="R38" t="n">
-        <v>1754.08786421146</v>
+        <v>153220.13688855295</v>
       </c>
       <c r="S38" t="n">
-        <v>4399.513740912213</v>
+        <v>242705.16474539417</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E39" t="n">
-        <v>61.598199802135944</v>
+        <v>612.2367748639466</v>
       </c>
       <c r="F39" t="n">
-        <v>1.0</v>
+        <v>0.9874786691353977</v>
       </c>
       <c r="G39" t="n">
-        <v>7.141820266914312</v>
+        <v>49.37393345676988</v>
       </c>
       <c r="H39" t="n">
-        <v>52.67092446849305</v>
+        <v>673.4604523503413</v>
       </c>
       <c r="I39" t="n">
         <v>1.0</v>
       </c>
       <c r="J39" t="n">
-        <v>21.425460800742936</v>
+        <v>139.23449234809107</v>
       </c>
       <c r="K39" t="n">
-        <v>254.42734700882238</v>
+        <v>2109.2544372732095</v>
       </c>
       <c r="L39" t="n">
-        <v>116.94730687072186</v>
+        <v>1194.8491896538312</v>
       </c>
       <c r="M39" t="n">
-        <v>55.349107068585916</v>
+        <v>382.1542449553989</v>
       </c>
       <c r="N39" t="n">
-        <v>561.5256184861378</v>
+        <v>2286.013119048446</v>
       </c>
       <c r="O39" t="n">
-        <v>274.96008027620104</v>
+        <v>2139.866276016407</v>
       </c>
       <c r="P39" t="n">
-        <v>232.10915867471513</v>
+        <v>1226.448507066164</v>
       </c>
       <c r="Q39" t="n">
-        <v>318.56714477347754</v>
+        <v>1627.4831522427633</v>
       </c>
       <c r="R39" t="n">
-        <v>554.8898306021684</v>
+        <v>1754.08786421146</v>
       </c>
       <c r="S39" t="n">
-        <v>482.01499356248405</v>
+        <v>4399.513740912213</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E40" t="n">
-        <v>625.9831355693872</v>
+        <v>61.598199802135944</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8829099232290369</v>
+        <v>1.0</v>
       </c>
       <c r="G40" t="n">
-        <v>46.79422593113896</v>
+        <v>7.141820266914312</v>
       </c>
       <c r="H40" t="n">
-        <v>716.039947738749</v>
+        <v>52.67092446849305</v>
       </c>
       <c r="I40" t="n">
         <v>1.0</v>
       </c>
       <c r="J40" t="n">
-        <v>151.86050679539434</v>
+        <v>21.425460800742936</v>
       </c>
       <c r="K40" t="n">
-        <v>1991.8447868047074</v>
+        <v>254.42734700882238</v>
       </c>
       <c r="L40" t="n">
-        <v>1109.8177734988994</v>
+        <v>116.94730687072186</v>
       </c>
       <c r="M40" t="n">
-        <v>374.3538074491117</v>
+        <v>55.349107068585916</v>
       </c>
       <c r="N40" t="n">
-        <v>3612.867405853219</v>
+        <v>561.5256184861378</v>
       </c>
       <c r="O40" t="n">
-        <v>2812.9510154077116</v>
+        <v>274.96008027620104</v>
       </c>
       <c r="P40" t="n">
-        <v>1691.6554129068347</v>
+        <v>232.10915867471513</v>
       </c>
       <c r="Q40" t="n">
-        <v>2481.380093302359</v>
+        <v>318.56714477347754</v>
       </c>
       <c r="R40" t="n">
-        <v>2986.084180210224</v>
+        <v>554.8898306021684</v>
       </c>
       <c r="S40" t="n">
-        <v>3807.3308303632166</v>
+        <v>482.01499356248405</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E41" t="n">
-        <v>202.15611195855666</v>
+        <v>625.9831355693872</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9535665658422484</v>
+        <v>0.8829099232290369</v>
       </c>
       <c r="G41" t="n">
-        <v>20.978464448529465</v>
+        <v>46.79422593113896</v>
       </c>
       <c r="H41" t="n">
-        <v>271.7664712650408</v>
+        <v>716.039947738749</v>
       </c>
       <c r="I41" t="n">
         <v>1.0</v>
       </c>
       <c r="J41" t="n">
-        <v>55.30686081885041</v>
+        <v>151.86050679539434</v>
       </c>
       <c r="K41" t="n">
-        <v>779.063884293117</v>
+        <v>1991.8447868047074</v>
       </c>
       <c r="L41" t="n">
-        <v>421.4764221022738</v>
+        <v>1109.8177734988994</v>
       </c>
       <c r="M41" t="n">
-        <v>144.94211800802177</v>
+        <v>374.3538074491117</v>
       </c>
       <c r="N41" t="n">
-        <v>944.0309001838259</v>
+        <v>3612.867405853219</v>
       </c>
       <c r="O41" t="n">
-        <v>793.3673827807506</v>
+        <v>2812.9510154077116</v>
       </c>
       <c r="P41" t="n">
-        <v>515.8795121206564</v>
+        <v>1691.6554129068347</v>
       </c>
       <c r="Q41" t="n">
-        <v>864.4167004028309</v>
+        <v>2481.380093302359</v>
       </c>
       <c r="R41" t="n">
-        <v>903.7530690218448</v>
+        <v>2986.084180210224</v>
       </c>
       <c r="S41" t="n">
-        <v>1269.5812971786743</v>
+        <v>3807.3308303632166</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E42" t="n">
-        <v>438.4254298299658</v>
+        <v>202.15611195855666</v>
       </c>
       <c r="F42" t="n">
-        <v>1.1328822476226508</v>
+        <v>0.9535665658422484</v>
       </c>
       <c r="G42" t="n">
-        <v>40.783760914415424</v>
+        <v>20.978464448529465</v>
       </c>
       <c r="H42" t="n">
-        <v>556.2451835827216</v>
+        <v>271.7664712650408</v>
       </c>
       <c r="I42" t="n">
         <v>1.0</v>
       </c>
       <c r="J42" t="n">
-        <v>98.56075554317061</v>
+        <v>55.30686081885041</v>
       </c>
       <c r="K42" t="n">
-        <v>1420.634338518804</v>
+        <v>779.063884293117</v>
       </c>
       <c r="L42" t="n">
-        <v>808.8779248025727</v>
+        <v>421.4764221022738</v>
       </c>
       <c r="M42" t="n">
-        <v>291.15073763902126</v>
+        <v>144.94211800802177</v>
       </c>
       <c r="N42" t="n">
-        <v>3610.495723173388</v>
+        <v>944.0309001838259</v>
       </c>
       <c r="O42" t="n">
-        <v>4090.837796165392</v>
+        <v>793.3673827807506</v>
       </c>
       <c r="P42" t="n">
-        <v>1864.724179586883</v>
+        <v>515.8795121206564</v>
       </c>
       <c r="Q42" t="n">
-        <v>3234.7221976230794</v>
+        <v>864.4167004028309</v>
       </c>
       <c r="R42" t="n">
-        <v>7604.384061138274</v>
+        <v>903.7530690218448</v>
       </c>
       <c r="S42" t="n">
-        <v>10457.589707229457</v>
+        <v>1269.5812971786743</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E43" t="n">
-        <v>529.6317091359596</v>
+        <v>438.4254298299658</v>
       </c>
       <c r="F43" t="n">
-        <v>1.1488757248068537</v>
+        <v>1.1328822476226508</v>
       </c>
       <c r="G43" t="n">
-        <v>50.550531891501564</v>
+        <v>40.783760914415424</v>
       </c>
       <c r="H43" t="n">
-        <v>488.27218304291284</v>
+        <v>556.2451835827216</v>
       </c>
       <c r="I43" t="n">
         <v>1.0</v>
       </c>
       <c r="J43" t="n">
-        <v>106.8454424070374</v>
+        <v>98.56075554317061</v>
       </c>
       <c r="K43" t="n">
-        <v>874.2944265780156</v>
+        <v>1420.634338518804</v>
       </c>
       <c r="L43" t="n">
-        <v>476.7834257948443</v>
+        <v>808.8779248025727</v>
       </c>
       <c r="M43" t="n">
-        <v>174.62911017064178</v>
+        <v>291.15073763902126</v>
       </c>
       <c r="N43" t="n">
-        <v>9781.527921005552</v>
+        <v>3610.495723173388</v>
       </c>
       <c r="O43" t="n">
-        <v>1181.0442451014455</v>
+        <v>4090.837796165392</v>
       </c>
       <c r="P43" t="n">
-        <v>3011.2032747187636</v>
+        <v>1864.724179586883</v>
       </c>
       <c r="Q43" t="n">
-        <v>1011.779776606553</v>
+        <v>3234.7221976230794</v>
       </c>
       <c r="R43" t="n">
-        <v>8009.296021192575</v>
+        <v>7604.384061138274</v>
       </c>
       <c r="S43" t="n">
-        <v>1441.866822985534</v>
+        <v>10457.589707229457</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E44" t="n">
-        <v>920.6767385308108</v>
+        <v>529.6317091359596</v>
       </c>
       <c r="F44" t="n">
-        <v>4.544307692649609</v>
+        <v>1.1488757248068537</v>
       </c>
       <c r="G44" t="n">
-        <v>85.43298462181265</v>
+        <v>50.550531891501564</v>
       </c>
       <c r="H44" t="n">
-        <v>1018.8337846920423</v>
+        <v>488.27218304291284</v>
       </c>
       <c r="I44" t="n">
         <v>1.0</v>
       </c>
       <c r="J44" t="n">
-        <v>220.853353862771</v>
+        <v>106.8454424070374</v>
       </c>
       <c r="K44" t="n">
-        <v>2615.703507889115</v>
+        <v>874.2944265780156</v>
       </c>
       <c r="L44" t="n">
-        <v>1483.2620308808323</v>
+        <v>476.7834257948443</v>
       </c>
       <c r="M44" t="n">
-        <v>508.0536000382263</v>
+        <v>174.62911017064178</v>
       </c>
       <c r="N44" t="n">
-        <v>8897.754462207935</v>
+        <v>9781.527921005552</v>
       </c>
       <c r="O44" t="n">
-        <v>10328.302523854032</v>
+        <v>1181.0442451014455</v>
       </c>
       <c r="P44" t="n">
-        <v>5454.98695425659</v>
+        <v>3011.2032747187636</v>
       </c>
       <c r="Q44" t="n">
-        <v>8650.147749503129</v>
+        <v>1011.779776606553</v>
       </c>
       <c r="R44" t="n">
-        <v>9207.368860050765</v>
+        <v>8009.296021192575</v>
       </c>
       <c r="S44" t="n">
-        <v>13611.276301408805</v>
+        <v>1441.866822985534</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E45" t="n">
-        <v>832.8101272102438</v>
+        <v>920.6767385308108</v>
       </c>
       <c r="F45" t="n">
-        <v>1.0</v>
+        <v>4.544307692649609</v>
       </c>
       <c r="G45" t="n">
-        <v>74.69149122961826</v>
+        <v>85.43298462181265</v>
       </c>
       <c r="H45" t="n">
-        <v>862.6867237020911</v>
+        <v>1018.8337846920423</v>
       </c>
       <c r="I45" t="n">
         <v>1.0</v>
       </c>
       <c r="J45" t="n">
-        <v>215.67168092552276</v>
+        <v>220.853353862771</v>
       </c>
       <c r="K45" t="n">
-        <v>896.2978947554193</v>
+        <v>2615.703507889115</v>
       </c>
       <c r="L45" t="n">
-        <v>545.2478859762134</v>
+        <v>1483.2620308808323</v>
       </c>
       <c r="M45" t="n">
-        <v>178.32593531071362</v>
+        <v>508.0536000382263</v>
       </c>
       <c r="N45" t="n">
-        <v>1003.6669133979956</v>
+        <v>8897.754462207935</v>
       </c>
       <c r="O45" t="n">
-        <v>946.7146513354116</v>
+        <v>10328.302523854032</v>
       </c>
       <c r="P45" t="n">
-        <v>589.1291370736142</v>
+        <v>5454.98695425659</v>
       </c>
       <c r="Q45" t="n">
-        <v>995.7124301761863</v>
+        <v>8650.147749503129</v>
       </c>
       <c r="R45" t="n">
-        <v>981.8316806848826</v>
+        <v>9207.368860050765</v>
       </c>
       <c r="S45" t="n">
-        <v>1584.2562086074638</v>
+        <v>13611.276301408805</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E46" t="n">
-        <v>17709.136515460486</v>
+        <v>832.8101272102438</v>
       </c>
       <c r="F46" t="n">
-        <v>2.892861940995451</v>
+        <v>1.0</v>
       </c>
       <c r="G46" t="n">
-        <v>1535.1454033549194</v>
+        <v>74.69149122961826</v>
       </c>
       <c r="H46" t="n">
-        <v>19954.96166898662</v>
+        <v>862.6867237020911</v>
       </c>
       <c r="I46" t="n">
         <v>1.0</v>
       </c>
       <c r="J46" t="n">
-        <v>4072.18532560793</v>
+        <v>215.67168092552276</v>
       </c>
       <c r="K46" t="n">
-        <v>38429.74231149723</v>
+        <v>896.2978947554193</v>
       </c>
       <c r="L46" t="n">
-        <v>20679.14144154915</v>
+        <v>545.2478859762134</v>
       </c>
       <c r="M46" t="n">
-        <v>7411.512292830345</v>
+        <v>178.32593531071362</v>
       </c>
       <c r="N46" t="n">
-        <v>78749.48775777816</v>
+        <v>1003.6669133979956</v>
       </c>
       <c r="O46" t="n">
-        <v>45164.324910134645</v>
+        <v>946.7146513354116</v>
       </c>
       <c r="P46" t="n">
-        <v>41276.31846143676</v>
+        <v>589.1291370736142</v>
       </c>
       <c r="Q46" t="n">
-        <v>41970.6897574637</v>
+        <v>995.7124301761863</v>
       </c>
       <c r="R46" t="n">
-        <v>63077.386004479056</v>
+        <v>981.8316806848826</v>
       </c>
       <c r="S46" t="n">
-        <v>65282.81521937068</v>
+        <v>1584.2562086074638</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="E47" t="n">
-        <v>225.32146976974528</v>
+        <v>17709.136515460486</v>
       </c>
       <c r="F47" t="n">
-        <v>1.0</v>
+        <v>2.892861940995451</v>
       </c>
       <c r="G47" t="n">
-        <v>18.073914687412724</v>
+        <v>1535.1454033549194</v>
       </c>
       <c r="H47" t="n">
-        <v>239.78060151967546</v>
+        <v>19954.96166898662</v>
       </c>
       <c r="I47" t="n">
         <v>1.0</v>
       </c>
       <c r="J47" t="n">
-        <v>56.6315993538932</v>
+        <v>4072.18532560793</v>
       </c>
       <c r="K47" t="n">
-        <v>7338.009363089565</v>
+        <v>38429.74231149723</v>
       </c>
       <c r="L47" t="n">
-        <v>4267.853721521058</v>
+        <v>20679.14144154915</v>
       </c>
       <c r="M47" t="n">
-        <v>1430.2491155972602</v>
+        <v>7411.512292830345</v>
       </c>
       <c r="N47" t="n">
-        <v>1500.134919055256</v>
+        <v>78749.48775777816</v>
       </c>
       <c r="O47" t="n">
-        <v>1850.768863991063</v>
+        <v>45164.324910134645</v>
       </c>
       <c r="P47" t="n">
-        <v>890.4415302665335</v>
+        <v>41276.31846143676</v>
       </c>
       <c r="Q47" t="n">
-        <v>1998.5788169358223</v>
+        <v>41970.6897574637</v>
       </c>
       <c r="R47" t="n">
-        <v>2032.2735465084397</v>
+        <v>63077.386004479056</v>
       </c>
       <c r="S47" t="n">
-        <v>6375.0428351392175</v>
+        <v>65282.81521937068</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E48" t="n">
-        <v>264.9570330721245</v>
+        <v>225.32146976974528</v>
       </c>
       <c r="F48" t="n">
-        <v>1.8925502362294606</v>
+        <v>1.0</v>
       </c>
       <c r="G48" t="n">
-        <v>37.85100472458921</v>
+        <v>18.073914687412724</v>
       </c>
       <c r="H48" t="n">
-        <v>238.46132976491205</v>
+        <v>239.78060151967546</v>
       </c>
       <c r="I48" t="n">
         <v>1.0</v>
       </c>
       <c r="J48" t="n">
-        <v>70.02435874049004</v>
+        <v>56.6315993538932</v>
       </c>
       <c r="K48" t="n">
-        <v>1026.7085031544823</v>
+        <v>7338.009363089565</v>
       </c>
       <c r="L48" t="n">
-        <v>443.8030303958085</v>
+        <v>4267.853721521058</v>
       </c>
       <c r="M48" t="n">
-        <v>175.0608968512251</v>
+        <v>1430.2491155972602</v>
       </c>
       <c r="N48" t="n">
-        <v>1022.9234026820235</v>
+        <v>1500.134919055256</v>
       </c>
       <c r="O48" t="n">
-        <v>1023.8696778001382</v>
+        <v>1850.768863991063</v>
       </c>
       <c r="P48" t="n">
-        <v>709.7063385860478</v>
+        <v>890.4415302665335</v>
       </c>
       <c r="Q48" t="n">
-        <v>1297.2515830896302</v>
+        <v>1998.5788169358223</v>
       </c>
       <c r="R48" t="n">
-        <v>1077.2089090112042</v>
+        <v>2032.2735465084397</v>
       </c>
       <c r="S48" t="n">
-        <v>1594.3091930955054</v>
+        <v>6375.0428351392175</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E49" t="n">
-        <v>2694.6916199887146</v>
+        <v>264.9570330721245</v>
       </c>
       <c r="F49" t="n">
-        <v>2.2846050190663116</v>
+        <v>1.8925502362294606</v>
       </c>
       <c r="G49" t="n">
-        <v>262.7295771926258</v>
+        <v>37.85100472458921</v>
       </c>
       <c r="H49" t="n">
-        <v>3032.813162810529</v>
+        <v>238.46132976491205</v>
       </c>
       <c r="I49" t="n">
         <v>1.0</v>
       </c>
       <c r="J49" t="n">
-        <v>692.2353207770924</v>
+        <v>70.02435874049004</v>
       </c>
       <c r="K49" t="n">
-        <v>19204.389790271416</v>
+        <v>1026.7085031544823</v>
       </c>
       <c r="L49" t="n">
-        <v>10144.788587163957</v>
+        <v>443.8030303958085</v>
       </c>
       <c r="M49" t="n">
-        <v>3621.098955220104</v>
+        <v>175.0608968512251</v>
       </c>
       <c r="N49" t="n">
-        <v>63507.45032000533</v>
+        <v>1022.9234026820235</v>
       </c>
       <c r="O49" t="n">
-        <v>40663.68473436128</v>
+        <v>1023.8696778001382</v>
       </c>
       <c r="P49" t="n">
-        <v>29562.788946718072</v>
+        <v>709.7063385860478</v>
       </c>
       <c r="Q49" t="n">
-        <v>41753.5298680359</v>
+        <v>1297.2515830896302</v>
       </c>
       <c r="R49" t="n">
-        <v>64306.573269521876</v>
+        <v>1077.2089090112042</v>
       </c>
       <c r="S49" t="n">
-        <v>73077.51991281765</v>
+        <v>1594.3091930955054</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E50" t="n">
-        <v>795.7653753379782</v>
+        <v>2694.6916199887146</v>
       </c>
       <c r="F50" t="n">
-        <v>1.0</v>
+        <v>2.2846050190663116</v>
       </c>
       <c r="G50" t="n">
-        <v>90.74517438064663</v>
+        <v>262.7295771926258</v>
       </c>
       <c r="H50" t="n">
-        <v>1099.4126896116804</v>
+        <v>3032.813162810529</v>
       </c>
       <c r="I50" t="n">
         <v>1.0</v>
       </c>
       <c r="J50" t="n">
-        <v>266.12767486631947</v>
+        <v>692.2353207770924</v>
       </c>
       <c r="K50" t="n">
-        <v>1886.452567413058</v>
+        <v>19204.389790271416</v>
       </c>
       <c r="L50" t="n">
-        <v>1035.7165575944957</v>
+        <v>10144.788587163957</v>
       </c>
       <c r="M50" t="n">
-        <v>356.00029949330604</v>
+        <v>3621.098955220104</v>
       </c>
       <c r="N50" t="n">
-        <v>17844.515012101965</v>
+        <v>63507.45032000533</v>
       </c>
       <c r="O50" t="n">
-        <v>16882.092633814915</v>
+        <v>40663.68473436128</v>
       </c>
       <c r="P50" t="n">
-        <v>9939.214243941788</v>
+        <v>29562.788946718072</v>
       </c>
       <c r="Q50" t="n">
-        <v>14642.446413731755</v>
+        <v>41753.5298680359</v>
       </c>
       <c r="R50" t="n">
-        <v>10794.621812081898</v>
+        <v>64306.573269521876</v>
       </c>
       <c r="S50" t="n">
-        <v>14695.556484147903</v>
+        <v>73077.51991281765</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E51" t="n">
-        <v>1.0</v>
+        <v>795.7653753379782</v>
       </c>
       <c r="F51" t="n">
         <v>1.0</v>
       </c>
       <c r="G51" t="n">
-        <v>1.0</v>
+        <v>90.74517438064663</v>
       </c>
       <c r="H51" t="n">
+        <v>1099.4126896116804</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>266.12767486631947</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1886.452567413058</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1035.7165575944957</v>
+      </c>
+      <c r="M51" t="n">
+        <v>356.00029949330604</v>
+      </c>
+      <c r="N51" t="n">
+        <v>17844.515012101965</v>
+      </c>
+      <c r="O51" t="n">
+        <v>16882.092633814915</v>
+      </c>
+      <c r="P51" t="n">
+        <v>9939.214243941788</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>14642.446413731755</v>
+      </c>
+      <c r="R51" t="n">
+        <v>10794.621812081898</v>
+      </c>
+      <c r="S51" t="n">
+        <v>14695.556484147903</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H52" t="n">
         <v>3.0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K51" t="n">
+      <c r="I52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K52" t="n">
         <v>5.0</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L52" t="n">
         <v>2.0</v>
       </c>
-      <c r="M51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N51" t="n">
+      <c r="M52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N52" t="n">
         <v>10.0</v>
       </c>
-      <c r="O51" t="n">
+      <c r="O52" t="n">
         <v>6.0</v>
       </c>
-      <c r="P51" t="n">
+      <c r="P52" t="n">
         <v>3.0</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="Q52" t="n">
         <v>18.0</v>
       </c>
-      <c r="R51" t="n">
+      <c r="R52" t="n">
         <v>22.0</v>
       </c>
-      <c r="S51" t="n">
+      <c r="S52" t="n">
         <v>20.0</v>
       </c>
     </row>

--- a/example/Initial Dataset.xlsx
+++ b/example/Initial Dataset.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/upton6_qut_edu_au/Documents/Documents/notebooks/Nanostring/DSP_EDA_Protein/example/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_9EEED302AF81C28B4A87139E358C5F2352187AF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7138B448-A948-E249-8065-C72B7EEA3844}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Exported dataset" r:id="rId3" sheetId="1"/>
+    <sheet name="Exported dataset" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -443,19 +451,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.00"/>
-      <color rgb="000000"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.00"/>
-      <color rgb="000000"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -478,44 +492,371 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.42578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="27.42578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="38.42578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="39.42578125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="38.42578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="39.42578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="38.42578125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="39.42578125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="39.42578125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="39.42578125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="39.42578125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="38.42578125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="39.42578125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="38.42578125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="39.42578125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="38.42578125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="39.42578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +906,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -615,7 +956,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -665,7 +1006,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -715,7 +1056,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -765,107 +1106,107 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>17573.302734375</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>17573.302734375</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>18044.623046875</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>18044.623046875</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>20909.033203125</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>20909.033203125</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>18334.525390625</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>21265.640625</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>18035.34375</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>10153.720703125</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>10153.720703125</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>10950.580078125</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>10950.580078125</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>8858.3017578125</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>8858.3017578125</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>3154.49243164062</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>3154.49243164062</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>4290.5947265625</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>4290.5947265625</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>4725.6982421875</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>4725.6982421875</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>24665.21484375</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>25971.27734375</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>27307.181640625</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>28651.78125</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>28651.78125</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>29721.830078125</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>29721.830078125</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>27368.12109375</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>27368.12109375</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -915,7 +1256,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -965,257 +1306,257 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="n">
-        <v>21891.056156</v>
-      </c>
-      <c r="F10" t="n">
-        <v>50650.022434</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1762.164287</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="E10">
+        <v>21891.056155999999</v>
+      </c>
+      <c r="F10">
+        <v>50650.022433999999</v>
+      </c>
+      <c r="G10">
+        <v>1762.1642870000001</v>
+      </c>
+      <c r="H10">
         <v>21830.807147</v>
       </c>
-      <c r="I10" t="n">
-        <v>695.645550</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5004.324020</v>
-      </c>
-      <c r="K10" t="n">
-        <v>107662.912506</v>
-      </c>
-      <c r="L10" t="n">
-        <v>22538.057388</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6761.560288</v>
-      </c>
-      <c r="N10" t="n">
-        <v>70508.827057</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="I10">
+        <v>695.64554999999996</v>
+      </c>
+      <c r="J10">
+        <v>5004.32402</v>
+      </c>
+      <c r="K10">
+        <v>107662.91250599999</v>
+      </c>
+      <c r="L10">
+        <v>22538.057388000001</v>
+      </c>
+      <c r="M10">
+        <v>6761.5602879999997</v>
+      </c>
+      <c r="N10">
+        <v>70508.827057000002</v>
+      </c>
+      <c r="O10">
         <v>114406.350401</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>20199.314853</v>
       </c>
-      <c r="Q10" t="n">
-        <v>71728.273358</v>
-      </c>
-      <c r="R10" t="n">
-        <v>44538.324808</v>
-      </c>
-      <c r="S10" t="n">
-        <v>111708.339369</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="Q10">
+        <v>71728.273358000006</v>
+      </c>
+      <c r="R10">
+        <v>44538.324807999998</v>
+      </c>
+      <c r="S10">
+        <v>111708.33936899999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="n">
-        <v>341.000000</v>
-      </c>
-      <c r="F11" t="n">
-        <v>536.000000</v>
-      </c>
-      <c r="G11" t="n">
-        <v>16.000000</v>
-      </c>
-      <c r="H11" t="n">
-        <v>228.000000</v>
-      </c>
-      <c r="I11" t="n">
-        <v>8.000000</v>
-      </c>
-      <c r="J11" t="n">
-        <v>44.000000</v>
-      </c>
-      <c r="K11" t="n">
-        <v>879.000000</v>
-      </c>
-      <c r="L11" t="n">
-        <v>214.000000</v>
-      </c>
-      <c r="M11" t="n">
-        <v>59.000000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>979.000000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2260.000000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>310.000000</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1503.000000</v>
-      </c>
-      <c r="R11" t="n">
-        <v>544.000000</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1788.000000</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11">
+        <v>341</v>
+      </c>
+      <c r="F11">
+        <v>536</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>228</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>44</v>
+      </c>
+      <c r="K11">
+        <v>879</v>
+      </c>
+      <c r="L11">
+        <v>214</v>
+      </c>
+      <c r="M11">
+        <v>59</v>
+      </c>
+      <c r="N11">
+        <v>979</v>
+      </c>
+      <c r="O11">
+        <v>2260</v>
+      </c>
+      <c r="P11">
+        <v>310</v>
+      </c>
+      <c r="Q11">
+        <v>1503</v>
+      </c>
+      <c r="R11">
+        <v>544</v>
+      </c>
+      <c r="S11">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>280</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>280</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>280</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>280</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>280</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>280</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>280</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>280</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>280</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>280</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>280</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>280</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>280</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>280</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>280</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>280</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>280</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>280</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>280</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>280</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>279</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>280</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>280</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>280</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>280</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>279</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>280</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>280</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>280</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>280</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.520000</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.420000</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.580000</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.220000</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.100000</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.500000</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.620000</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.300000</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.230000</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.470000</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.440000</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.430000</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.520000</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.420000</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.580000</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14">
+        <v>0.52</v>
+      </c>
+      <c r="F14">
+        <v>0.42</v>
+      </c>
+      <c r="G14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H14">
+        <v>0.22</v>
+      </c>
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+      <c r="J14">
+        <v>0.5</v>
+      </c>
+      <c r="K14">
+        <v>0.62</v>
+      </c>
+      <c r="L14">
+        <v>0.3</v>
+      </c>
+      <c r="M14">
+        <v>0.23</v>
+      </c>
+      <c r="N14">
+        <v>0.47</v>
+      </c>
+      <c r="O14">
+        <v>0.44</v>
+      </c>
+      <c r="P14">
+        <v>0.43</v>
+      </c>
+      <c r="Q14">
+        <v>0.52</v>
+      </c>
+      <c r="R14">
+        <v>0.42</v>
+      </c>
+      <c r="S14">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1265,7 +1606,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1315,62 +1656,62 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>2</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>2</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>2</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>2</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>2</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>2</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>2</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>2</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>2</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>2</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17">
         <v>2</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1378,7 +1719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1431,7 +1772,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1484,8 +1825,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
@@ -1537,7 +1878,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1590,7 +1931,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1643,7 +1984,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1696,7 +2037,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1710,7 +2051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1723,53 +2064,53 @@
       <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>742.6194993597943</v>
       </c>
-      <c r="F27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>95.6067020133867</v>
-      </c>
-      <c r="H27" t="n">
-        <v>832.6676721863562</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>95.606702013386695</v>
+      </c>
+      <c r="H27">
+        <v>832.66767218635619</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
         <v>219.00604996089743</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>16624.449091955634</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>10964.754673930616</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>3256.1863976419722</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>26956.643144425587</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27">
         <v>31224.481854069676</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P27">
         <v>15094.741859741447</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27">
         <v>28653.344156374984</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27">
         <v>27139.36862099899</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S27">
         <v>55935.062668349565</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1782,53 +2123,53 @@
       <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E28" t="n">
-        <v>37.31001947652615</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="E28">
+        <v>37.310019476526151</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
         <v>3.2920605420464253</v>
       </c>
-      <c r="H28" t="n">
-        <v>42.79678704660353</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>7.681474598108325</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="H28">
+        <v>42.796787046603527</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>7.6814745981083252</v>
+      </c>
+      <c r="K28">
         <v>127.29300762579511</v>
       </c>
-      <c r="L28" t="n">
-        <v>75.71739246706778</v>
-      </c>
-      <c r="M28" t="n">
+      <c r="L28">
+        <v>75.717392467067782</v>
+      </c>
+      <c r="M28">
         <v>29.628544878417827</v>
       </c>
-      <c r="N28" t="n">
-        <v>735.2268543903683</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="N28">
+        <v>735.22685439036832</v>
+      </c>
+      <c r="O28">
         <v>178.86862278452244</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P28">
         <v>201.91304657884743</v>
       </c>
-      <c r="Q28" t="n">
-        <v>185.3530836172368</v>
-      </c>
-      <c r="R28" t="n">
-        <v>643.3419198566526</v>
-      </c>
-      <c r="S28" t="n">
+      <c r="Q28">
+        <v>185.35308361723679</v>
+      </c>
+      <c r="R28">
+        <v>643.34191985665257</v>
+      </c>
+      <c r="S28">
         <v>291.26913139851496</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1841,53 +2182,53 @@
       <c r="D29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>51.833431378118185</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>10.078722767967426</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>12.238449075389017</v>
       </c>
-      <c r="H29" t="n">
-        <v>65.51169799178827</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="H29">
+        <v>65.511697991788267</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
         <v>14.398175382810606</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>209.49345181989435</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>118.06503813904698</v>
       </c>
-      <c r="M29" t="n">
-        <v>49.6737050706966</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="M29">
+        <v>49.673705070696599</v>
+      </c>
+      <c r="N29">
         <v>246.9287078152019</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O29">
         <v>193.65545889880266</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P29">
         <v>138.22248367498185</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29">
         <v>226.97694885710172</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R29">
         <v>244.69633891657804</v>
       </c>
-      <c r="S29" t="n">
-        <v>331.6057282559144</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="S29">
+        <v>331.60572825591441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1900,53 +2241,53 @@
       <c r="D30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E30" t="n">
-        <v>50421.57816270854</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.9986646232388944</v>
-      </c>
-      <c r="G30" t="n">
-        <v>4385.136360641985</v>
-      </c>
-      <c r="H30" t="n">
-        <v>57315.36005692663</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J30" t="n">
+      <c r="E30">
+        <v>50421.578162708538</v>
+      </c>
+      <c r="F30">
+        <v>0.99866462323889438</v>
+      </c>
+      <c r="G30">
+        <v>4385.1363606419854</v>
+      </c>
+      <c r="H30">
+        <v>57315.360056926627</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
         <v>14587.49415165053</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>166377.5262315998</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>107599.1225016282</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>32920.979305070156</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30">
         <v>4021.6224377830276</v>
       </c>
-      <c r="O30" t="n">
-        <v>3101.852319780006</v>
-      </c>
-      <c r="P30" t="n">
+      <c r="O30">
+        <v>3101.8523197800059</v>
+      </c>
+      <c r="P30">
         <v>3295.5932566883516</v>
       </c>
-      <c r="Q30" t="n">
-        <v>6480.464131677293</v>
-      </c>
-      <c r="R30" t="n">
+      <c r="Q30">
+        <v>6480.4641316772932</v>
+      </c>
+      <c r="R30">
         <v>3492.9954433118082</v>
       </c>
-      <c r="S30" t="n">
+      <c r="S30">
         <v>4048.1027069163288</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1959,53 +2300,53 @@
       <c r="D31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E31" t="n">
-        <v>396.8219031340232</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.9293253000796796</v>
-      </c>
-      <c r="G31" t="n">
-        <v>37.17301200318718</v>
-      </c>
-      <c r="H31" t="n">
-        <v>512.0582403439034</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="E31">
+        <v>396.82190313402322</v>
+      </c>
+      <c r="F31">
+        <v>0.92932530007967962</v>
+      </c>
+      <c r="G31">
+        <v>37.173012003187182</v>
+      </c>
+      <c r="H31">
+        <v>512.05824034390344</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
         <v>113.37768660972091</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>1697.8773232455746</v>
       </c>
-      <c r="L31" t="n">
-        <v>785.2798785673293</v>
-      </c>
-      <c r="M31" t="n">
-        <v>299.2427466256568</v>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31">
+        <v>785.27987856732932</v>
+      </c>
+      <c r="M31">
+        <v>299.24274662565682</v>
+      </c>
+      <c r="N31">
         <v>3087.2186468646955</v>
       </c>
-      <c r="O31" t="n">
-        <v>2451.560141610195</v>
-      </c>
-      <c r="P31" t="n">
+      <c r="O31">
+        <v>2451.5601416101949</v>
+      </c>
+      <c r="P31">
         <v>1451.6061187244595</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31">
         <v>2173.6001139961168</v>
       </c>
-      <c r="R31" t="n">
-        <v>2799.960054038617</v>
-      </c>
-      <c r="S31" t="n">
+      <c r="R31">
+        <v>2799.9600540386168</v>
+      </c>
+      <c r="S31">
         <v>4071.8439258479457</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2018,53 +2359,53 @@
       <c r="D32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>3198.0346098238683</v>
       </c>
-      <c r="F32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>3076.302235846226</v>
-      </c>
-      <c r="H32" t="n">
-        <v>8772.694726557043</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3076.3022358462258</v>
+      </c>
+      <c r="H32">
+        <v>8772.6947265570434</v>
+      </c>
+      <c r="I32">
         <v>1.1376857381088112</v>
       </c>
-      <c r="J32" t="n">
-        <v>6430.199791791001</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3614.427589971693</v>
-      </c>
-      <c r="L32" t="n">
-        <v>9183.399278014323</v>
-      </c>
-      <c r="M32" t="n">
-        <v>8747.66564031865</v>
-      </c>
-      <c r="N32" t="n">
+      <c r="J32">
+        <v>6430.1997917910012</v>
+      </c>
+      <c r="K32">
+        <v>3614.4275899716931</v>
+      </c>
+      <c r="L32">
+        <v>9183.3992780143235</v>
+      </c>
+      <c r="M32">
+        <v>8747.6656403186498</v>
+      </c>
+      <c r="N32">
         <v>3815.7979656169528</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32">
         <v>1971.60938414257</v>
       </c>
-      <c r="P32" t="n">
-        <v>8472.345691696317</v>
-      </c>
-      <c r="Q32" t="n">
+      <c r="P32">
+        <v>8472.3456916963169</v>
+      </c>
+      <c r="Q32">
         <v>2665.6365153614584</v>
       </c>
-      <c r="R32" t="n">
-        <v>6892.703504805832</v>
-      </c>
-      <c r="S32" t="n">
+      <c r="R32">
+        <v>6892.7035048058324</v>
+      </c>
+      <c r="S32">
         <v>2778.58721516491</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -2077,53 +2418,53 @@
       <c r="D33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E33" t="n">
-        <v>395.0588283337129</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>28.21848773812235</v>
-      </c>
-      <c r="H33" t="n">
-        <v>449.3251509070251</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="E33">
+        <v>395.05882833371288</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>28.218487738122349</v>
+      </c>
+      <c r="H33">
+        <v>449.32515090702509</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
         <v>104.19133934075944</v>
       </c>
-      <c r="K33" t="n">
-        <v>7294.479080304627</v>
-      </c>
-      <c r="L33" t="n">
+      <c r="K33">
+        <v>7294.4790803046271</v>
+      </c>
+      <c r="L33">
         <v>4037.4143994544283</v>
       </c>
-      <c r="M33" t="n">
-        <v>1417.436345614915</v>
-      </c>
-      <c r="N33" t="n">
+      <c r="M33">
+        <v>1417.4363456149149</v>
+      </c>
+      <c r="N33">
         <v>3071.473857649471</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O33">
         <v>2730.6813518890704</v>
       </c>
-      <c r="P33" t="n">
-        <v>1648.610879777225</v>
-      </c>
-      <c r="Q33" t="n">
+      <c r="P33">
+        <v>1648.6108797772249</v>
+      </c>
+      <c r="Q33">
         <v>2291.0653598946988</v>
       </c>
-      <c r="R33" t="n">
+      <c r="R33">
         <v>3790.1213391949386</v>
       </c>
-      <c r="S33" t="n">
-        <v>7674.971297277254</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="S33">
+        <v>7674.9712972772541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -2136,53 +2477,53 @@
       <c r="D34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>188.41347255070374</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>1.9424069335124097</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>15.539255468099277</v>
       </c>
-      <c r="H34" t="n">
-        <v>222.4055938871709</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>51.47378373807886</v>
-      </c>
-      <c r="K34" t="n">
-        <v>678.8712232625871</v>
-      </c>
-      <c r="L34" t="n">
-        <v>368.0861139006016</v>
-      </c>
-      <c r="M34" t="n">
+      <c r="H34">
+        <v>222.40559388717091</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>51.473783738078858</v>
+      </c>
+      <c r="K34">
+        <v>678.87122326258714</v>
+      </c>
+      <c r="L34">
+        <v>368.08611390060162</v>
+      </c>
+      <c r="M34">
         <v>137.91089227938107</v>
       </c>
-      <c r="N34" t="n">
-        <v>740.0570416682281</v>
-      </c>
-      <c r="O34" t="n">
-        <v>684.6984440631244</v>
-      </c>
-      <c r="P34" t="n">
+      <c r="N34">
+        <v>740.05704166822807</v>
+      </c>
+      <c r="O34">
+        <v>684.69844406312438</v>
+      </c>
+      <c r="P34">
         <v>472.97608831027173</v>
       </c>
-      <c r="Q34" t="n">
-        <v>691.5022479400805</v>
-      </c>
-      <c r="R34" t="n">
-        <v>628.1887373990717</v>
-      </c>
-      <c r="S34" t="n">
-        <v>968.4988565569939</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="Q34">
+        <v>691.50224794008045</v>
+      </c>
+      <c r="R34">
+        <v>628.18873739907167</v>
+      </c>
+      <c r="S34">
+        <v>968.49885655699393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -2195,53 +2536,53 @@
       <c r="D35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E35" t="n">
-        <v>625.5663618084066</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E35">
+        <v>625.56636180840655</v>
+      </c>
+      <c r="F35">
         <v>1.0785626927731147</v>
       </c>
-      <c r="G35" t="n">
-        <v>80.8922019579836</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="G35">
+        <v>80.892201957983602</v>
+      </c>
+      <c r="H35">
         <v>783.0365149532812</v>
       </c>
-      <c r="I35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J35" t="n">
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
         <v>171.49146815092524</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>2123.689942070263</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>1624.3154153163107</v>
       </c>
-      <c r="M35" t="n">
-        <v>433.5822024947921</v>
-      </c>
-      <c r="N35" t="n">
+      <c r="M35">
+        <v>433.58220249479211</v>
+      </c>
+      <c r="N35">
         <v>1601.6655987680754</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O35">
         <v>1575.7800941415205</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P35">
         <v>993.3562400440386</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35">
         <v>1620.8323955911083</v>
       </c>
-      <c r="R35" t="n">
+      <c r="R35">
         <v>1454.3574866551596</v>
       </c>
-      <c r="S35" t="n">
+      <c r="S35">
         <v>2361.2882788951747</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -2254,53 +2595,53 @@
       <c r="D36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>1789.5744340050176</v>
       </c>
-      <c r="F36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>206.01095786764972</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>2017.3525874209472</v>
       </c>
-      <c r="I36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J36" t="n">
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
         <v>344.38812956742953</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>1711.8344499040177</v>
       </c>
-      <c r="L36" t="n">
-        <v>924.3284109608887</v>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36">
+        <v>924.32841096088873</v>
+      </c>
+      <c r="M36">
         <v>330.39493242924954</v>
       </c>
-      <c r="N36" t="n">
-        <v>6401.110290876331</v>
-      </c>
-      <c r="O36" t="n">
-        <v>7585.090248734559</v>
-      </c>
-      <c r="P36" t="n">
+      <c r="N36">
+        <v>6401.1102908763314</v>
+      </c>
+      <c r="O36">
+        <v>7585.0902487345593</v>
+      </c>
+      <c r="P36">
         <v>3132.1439594292856</v>
       </c>
-      <c r="Q36" t="n">
-        <v>6102.053646753337</v>
-      </c>
-      <c r="R36" t="n">
-        <v>7810.096793120702</v>
-      </c>
-      <c r="S36" t="n">
+      <c r="Q36">
+        <v>6102.0536467533366</v>
+      </c>
+      <c r="R36">
+        <v>7810.0967931207024</v>
+      </c>
+      <c r="S36">
         <v>21012.677999507378</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -2313,53 +2654,53 @@
       <c r="D37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>1791.4504751996067</v>
       </c>
-      <c r="F37" t="n">
-        <v>2.023094833652859</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="F37">
+        <v>2.0230948336528591</v>
+      </c>
+      <c r="G37">
         <v>193.20555661384805</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>2125.2611227523284</v>
       </c>
-      <c r="I37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J37" t="n">
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
         <v>440.02312631949684</v>
       </c>
-      <c r="K37" t="n">
-        <v>2988.111069305273</v>
-      </c>
-      <c r="L37" t="n">
+      <c r="K37">
+        <v>2988.1110693052728</v>
+      </c>
+      <c r="L37">
         <v>1566.8869486641395</v>
       </c>
-      <c r="M37" t="n">
-        <v>556.3510792545362</v>
-      </c>
-      <c r="N37" t="n">
+      <c r="M37">
+        <v>556.35107925453622</v>
+      </c>
+      <c r="N37">
         <v>2669.4736330049477</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O37">
         <v>2167.7461142590387</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P37">
         <v>1526.4250519910822</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q37">
         <v>2508.3938774700596</v>
       </c>
-      <c r="R37" t="n">
-        <v>2407.371167946497</v>
-      </c>
-      <c r="S37" t="n">
+      <c r="R37">
+        <v>2407.3711679464968</v>
+      </c>
+      <c r="S37">
         <v>3439.8232592773065</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -2372,53 +2713,53 @@
       <c r="D38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E38" t="n">
-        <v>48198.27123896891</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E38">
+        <v>48198.271238968911</v>
+      </c>
+      <c r="F38">
         <v>5.6419758438648815</v>
       </c>
-      <c r="G38" t="n">
-        <v>4213.427560198294</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="G38">
+        <v>4213.4275601982936</v>
+      </c>
+      <c r="H38">
         <v>56877.88687717064</v>
       </c>
-      <c r="I38" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J38" t="n">
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
         <v>11330.215889649455</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>184014.17054282187</v>
       </c>
-      <c r="L38" t="n">
-        <v>96211.48567025905</v>
-      </c>
-      <c r="M38" t="n">
-        <v>35282.66013719342</v>
-      </c>
-      <c r="N38" t="n">
+      <c r="L38">
+        <v>96211.485670259048</v>
+      </c>
+      <c r="M38">
+        <v>35282.660137193423</v>
+      </c>
+      <c r="N38">
         <v>199540.88806513805</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O38">
         <v>192653.16395494778</v>
       </c>
-      <c r="P38" t="n">
+      <c r="P38">
         <v>130516.95559129507</v>
       </c>
-      <c r="Q38" t="n">
-        <v>203783.2177626016</v>
-      </c>
-      <c r="R38" t="n">
+      <c r="Q38">
+        <v>203783.21776260159</v>
+      </c>
+      <c r="R38">
         <v>153220.13688855295</v>
       </c>
-      <c r="S38" t="n">
+      <c r="S38">
         <v>242705.16474539417</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -2431,53 +2772,53 @@
       <c r="D39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E39" t="n">
-        <v>612.2367748639466</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.9874786691353977</v>
-      </c>
-      <c r="G39" t="n">
-        <v>49.37393345676988</v>
-      </c>
-      <c r="H39" t="n">
-        <v>673.4604523503413</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J39" t="n">
+      <c r="E39">
+        <v>612.23677486394661</v>
+      </c>
+      <c r="F39">
+        <v>0.98747866913539772</v>
+      </c>
+      <c r="G39">
+        <v>49.373933456769883</v>
+      </c>
+      <c r="H39">
+        <v>673.46045235034126</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
         <v>139.23449234809107</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>2109.2544372732095</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>1194.8491896538312</v>
       </c>
-      <c r="M39" t="n">
-        <v>382.1542449553989</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2286.013119048446</v>
-      </c>
-      <c r="O39" t="n">
+      <c r="M39">
+        <v>382.15424495539889</v>
+      </c>
+      <c r="N39">
+        <v>2286.0131190484458</v>
+      </c>
+      <c r="O39">
         <v>2139.866276016407</v>
       </c>
-      <c r="P39" t="n">
+      <c r="P39">
         <v>1226.448507066164</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q39">
         <v>1627.4831522427633</v>
       </c>
-      <c r="R39" t="n">
-        <v>1754.08786421146</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4399.513740912213</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="R39">
+        <v>1754.0878642114601</v>
+      </c>
+      <c r="S39">
+        <v>4399.5137409122126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -2490,53 +2831,53 @@
       <c r="D40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>61.598199802135944</v>
       </c>
-      <c r="F40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
         <v>7.141820266914312</v>
       </c>
-      <c r="H40" t="n">
-        <v>52.67092446849305</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J40" t="n">
+      <c r="H40">
+        <v>52.670924468493048</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
         <v>21.425460800742936</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>254.42734700882238</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>116.94730687072186</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40">
         <v>55.349107068585916</v>
       </c>
-      <c r="N40" t="n">
-        <v>561.5256184861378</v>
-      </c>
-      <c r="O40" t="n">
+      <c r="N40">
+        <v>561.52561848613777</v>
+      </c>
+      <c r="O40">
         <v>274.96008027620104</v>
       </c>
-      <c r="P40" t="n">
+      <c r="P40">
         <v>232.10915867471513</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="Q40">
         <v>318.56714477347754</v>
       </c>
-      <c r="R40" t="n">
-        <v>554.8898306021684</v>
-      </c>
-      <c r="S40" t="n">
+      <c r="R40">
+        <v>554.88983060216844</v>
+      </c>
+      <c r="S40">
         <v>482.01499356248405</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -2549,53 +2890,53 @@
       <c r="D41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E41" t="n">
-        <v>625.9831355693872</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.8829099232290369</v>
-      </c>
-      <c r="G41" t="n">
-        <v>46.79422593113896</v>
-      </c>
-      <c r="H41" t="n">
-        <v>716.039947738749</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J41" t="n">
+      <c r="E41">
+        <v>625.98313556938717</v>
+      </c>
+      <c r="F41">
+        <v>0.88290992322903694</v>
+      </c>
+      <c r="G41">
+        <v>46.794225931138961</v>
+      </c>
+      <c r="H41">
+        <v>716.03994773874899</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
         <v>151.86050679539434</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>1991.8447868047074</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>1109.8177734988994</v>
       </c>
-      <c r="M41" t="n">
-        <v>374.3538074491117</v>
-      </c>
-      <c r="N41" t="n">
-        <v>3612.867405853219</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="M41">
+        <v>374.35380744911168</v>
+      </c>
+      <c r="N41">
+        <v>3612.8674058532192</v>
+      </c>
+      <c r="O41">
         <v>2812.9510154077116</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P41">
         <v>1691.6554129068347</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q41">
         <v>2481.380093302359</v>
       </c>
-      <c r="R41" t="n">
-        <v>2986.084180210224</v>
-      </c>
-      <c r="S41" t="n">
+      <c r="R41">
+        <v>2986.0841802102241</v>
+      </c>
+      <c r="S41">
         <v>3807.3308303632166</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -2608,53 +2949,53 @@
       <c r="D42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>202.15611195855666</v>
       </c>
-      <c r="F42" t="n">
-        <v>0.9535665658422484</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="F42">
+        <v>0.95356656584224841</v>
+      </c>
+      <c r="G42">
         <v>20.978464448529465</v>
       </c>
-      <c r="H42" t="n">
-        <v>271.7664712650408</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J42" t="n">
+      <c r="H42">
+        <v>271.76647126504082</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
         <v>55.30686081885041</v>
       </c>
-      <c r="K42" t="n">
-        <v>779.063884293117</v>
-      </c>
-      <c r="L42" t="n">
-        <v>421.4764221022738</v>
-      </c>
-      <c r="M42" t="n">
+      <c r="K42">
+        <v>779.06388429311698</v>
+      </c>
+      <c r="L42">
+        <v>421.47642210227377</v>
+      </c>
+      <c r="M42">
         <v>144.94211800802177</v>
       </c>
-      <c r="N42" t="n">
-        <v>944.0309001838259</v>
-      </c>
-      <c r="O42" t="n">
-        <v>793.3673827807506</v>
-      </c>
-      <c r="P42" t="n">
-        <v>515.8795121206564</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>864.4167004028309</v>
-      </c>
-      <c r="R42" t="n">
-        <v>903.7530690218448</v>
-      </c>
-      <c r="S42" t="n">
+      <c r="N42">
+        <v>944.03090018382591</v>
+      </c>
+      <c r="O42">
+        <v>793.36738278075063</v>
+      </c>
+      <c r="P42">
+        <v>515.87951212065639</v>
+      </c>
+      <c r="Q42">
+        <v>864.41670040283088</v>
+      </c>
+      <c r="R42">
+        <v>903.75306902184479</v>
+      </c>
+      <c r="S42">
         <v>1269.5812971786743</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -2667,53 +3008,53 @@
       <c r="D43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E43" t="n">
-        <v>438.4254298299658</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E43">
+        <v>438.42542982996582</v>
+      </c>
+      <c r="F43">
         <v>1.1328822476226508</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>40.783760914415424</v>
       </c>
-      <c r="H43" t="n">
-        <v>556.2451835827216</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>98.56075554317061</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="H43">
+        <v>556.24518358272155</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>98.560755543170615</v>
+      </c>
+      <c r="K43">
         <v>1420.634338518804</v>
       </c>
-      <c r="L43" t="n">
-        <v>808.8779248025727</v>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43">
+        <v>808.87792480257269</v>
+      </c>
+      <c r="M43">
         <v>291.15073763902126</v>
       </c>
-      <c r="N43" t="n">
-        <v>3610.495723173388</v>
-      </c>
-      <c r="O43" t="n">
-        <v>4090.837796165392</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1864.724179586883</v>
-      </c>
-      <c r="Q43" t="n">
+      <c r="N43">
+        <v>3610.4957231733879</v>
+      </c>
+      <c r="O43">
+        <v>4090.8377961653919</v>
+      </c>
+      <c r="P43">
+        <v>1864.7241795868831</v>
+      </c>
+      <c r="Q43">
         <v>3234.7221976230794</v>
       </c>
-      <c r="R43" t="n">
-        <v>7604.384061138274</v>
-      </c>
-      <c r="S43" t="n">
+      <c r="R43">
+        <v>7604.3840611382739</v>
+      </c>
+      <c r="S43">
         <v>10457.589707229457</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -2726,53 +3067,53 @@
       <c r="D44" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E44" t="n">
-        <v>529.6317091359596</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E44">
+        <v>529.63170913595957</v>
+      </c>
+      <c r="F44">
         <v>1.1488757248068537</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>50.550531891501564</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>488.27218304291284</v>
       </c>
-      <c r="I44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J44" t="n">
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
         <v>106.8454424070374</v>
       </c>
-      <c r="K44" t="n">
-        <v>874.2944265780156</v>
-      </c>
-      <c r="L44" t="n">
-        <v>476.7834257948443</v>
-      </c>
-      <c r="M44" t="n">
+      <c r="K44">
+        <v>874.29442657801565</v>
+      </c>
+      <c r="L44">
+        <v>476.78342579484428</v>
+      </c>
+      <c r="M44">
         <v>174.62911017064178</v>
       </c>
-      <c r="N44" t="n">
-        <v>9781.527921005552</v>
-      </c>
-      <c r="O44" t="n">
+      <c r="N44">
+        <v>9781.5279210055523</v>
+      </c>
+      <c r="O44">
         <v>1181.0442451014455</v>
       </c>
-      <c r="P44" t="n">
+      <c r="P44">
         <v>3011.2032747187636</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="Q44">
         <v>1011.779776606553</v>
       </c>
-      <c r="R44" t="n">
-        <v>8009.296021192575</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1441.866822985534</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="R44">
+        <v>8009.2960211925747</v>
+      </c>
+      <c r="S44">
+        <v>1441.8668229855341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -2785,53 +3126,53 @@
       <c r="D45" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E45" t="n">
-        <v>920.6767385308108</v>
-      </c>
-      <c r="F45" t="n">
-        <v>4.544307692649609</v>
-      </c>
-      <c r="G45" t="n">
-        <v>85.43298462181265</v>
-      </c>
-      <c r="H45" t="n">
+      <c r="E45">
+        <v>920.67673853081078</v>
+      </c>
+      <c r="F45">
+        <v>4.5443076926496087</v>
+      </c>
+      <c r="G45">
+        <v>85.432984621812651</v>
+      </c>
+      <c r="H45">
         <v>1018.8337846920423</v>
       </c>
-      <c r="I45" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J45" t="n">
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
         <v>220.853353862771</v>
       </c>
-      <c r="K45" t="n">
-        <v>2615.703507889115</v>
-      </c>
-      <c r="L45" t="n">
+      <c r="K45">
+        <v>2615.7035078891149</v>
+      </c>
+      <c r="L45">
         <v>1483.2620308808323</v>
       </c>
-      <c r="M45" t="n">
-        <v>508.0536000382263</v>
-      </c>
-      <c r="N45" t="n">
-        <v>8897.754462207935</v>
-      </c>
-      <c r="O45" t="n">
+      <c r="M45">
+        <v>508.05360003822631</v>
+      </c>
+      <c r="N45">
+        <v>8897.7544622079349</v>
+      </c>
+      <c r="O45">
         <v>10328.302523854032</v>
       </c>
-      <c r="P45" t="n">
-        <v>5454.98695425659</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>8650.147749503129</v>
-      </c>
-      <c r="R45" t="n">
-        <v>9207.368860050765</v>
-      </c>
-      <c r="S45" t="n">
+      <c r="P45">
+        <v>5454.9869542565903</v>
+      </c>
+      <c r="Q45">
+        <v>8650.1477495031286</v>
+      </c>
+      <c r="R45">
+        <v>9207.3688600507649</v>
+      </c>
+      <c r="S45">
         <v>13611.276301408805</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -2844,53 +3185,53 @@
       <c r="D46" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E46" t="n">
-        <v>832.8101272102438</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>74.69149122961826</v>
-      </c>
-      <c r="H46" t="n">
-        <v>862.6867237020911</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J46" t="n">
+      <c r="E46">
+        <v>832.81012721024376</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>74.691491229618265</v>
+      </c>
+      <c r="H46">
+        <v>862.68672370209106</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
         <v>215.67168092552276</v>
       </c>
-      <c r="K46" t="n">
-        <v>896.2978947554193</v>
-      </c>
-      <c r="L46" t="n">
-        <v>545.2478859762134</v>
-      </c>
-      <c r="M46" t="n">
+      <c r="K46">
+        <v>896.29789475541929</v>
+      </c>
+      <c r="L46">
+        <v>545.24788597621341</v>
+      </c>
+      <c r="M46">
         <v>178.32593531071362</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N46">
         <v>1003.6669133979956</v>
       </c>
-      <c r="O46" t="n">
-        <v>946.7146513354116</v>
-      </c>
-      <c r="P46" t="n">
-        <v>589.1291370736142</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>995.7124301761863</v>
-      </c>
-      <c r="R46" t="n">
+      <c r="O46">
+        <v>946.71465133541165</v>
+      </c>
+      <c r="P46">
+        <v>589.12913707361417</v>
+      </c>
+      <c r="Q46">
+        <v>995.71243017618633</v>
+      </c>
+      <c r="R46">
         <v>981.8316806848826</v>
       </c>
-      <c r="S46" t="n">
+      <c r="S46">
         <v>1584.2562086074638</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -2903,53 +3244,53 @@
       <c r="D47" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>17709.136515460486</v>
       </c>
-      <c r="F47" t="n">
-        <v>2.892861940995451</v>
-      </c>
-      <c r="G47" t="n">
+      <c r="F47">
+        <v>2.8928619409954508</v>
+      </c>
+      <c r="G47">
         <v>1535.1454033549194</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>19954.96166898662</v>
       </c>
-      <c r="I47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>4072.18532560793</v>
-      </c>
-      <c r="K47" t="n">
-        <v>38429.74231149723</v>
-      </c>
-      <c r="L47" t="n">
-        <v>20679.14144154915</v>
-      </c>
-      <c r="M47" t="n">
-        <v>7411.512292830345</v>
-      </c>
-      <c r="N47" t="n">
-        <v>78749.48775777816</v>
-      </c>
-      <c r="O47" t="n">
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>4072.1853256079298</v>
+      </c>
+      <c r="K47">
+        <v>38429.742311497233</v>
+      </c>
+      <c r="L47">
+        <v>20679.141441549149</v>
+      </c>
+      <c r="M47">
+        <v>7411.5122928303454</v>
+      </c>
+      <c r="N47">
+        <v>78749.487757778159</v>
+      </c>
+      <c r="O47">
         <v>45164.324910134645</v>
       </c>
-      <c r="P47" t="n">
-        <v>41276.31846143676</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>41970.6897574637</v>
-      </c>
-      <c r="R47" t="n">
+      <c r="P47">
+        <v>41276.318461436756</v>
+      </c>
+      <c r="Q47">
+        <v>41970.689757463697</v>
+      </c>
+      <c r="R47">
         <v>63077.386004479056</v>
       </c>
-      <c r="S47" t="n">
-        <v>65282.81521937068</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="S47">
+        <v>65282.815219370677</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -2962,53 +3303,53 @@
       <c r="D48" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>225.32146976974528</v>
       </c>
-      <c r="F48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
         <v>18.073914687412724</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>239.78060151967546</v>
       </c>
-      <c r="I48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>56.6315993538932</v>
-      </c>
-      <c r="K48" t="n">
-        <v>7338.009363089565</v>
-      </c>
-      <c r="L48" t="n">
-        <v>4267.853721521058</v>
-      </c>
-      <c r="M48" t="n">
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>56.631599353893201</v>
+      </c>
+      <c r="K48">
+        <v>7338.0093630895653</v>
+      </c>
+      <c r="L48">
+        <v>4267.8537215210581</v>
+      </c>
+      <c r="M48">
         <v>1430.2491155972602</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N48">
         <v>1500.134919055256</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O48">
         <v>1850.768863991063</v>
       </c>
-      <c r="P48" t="n">
+      <c r="P48">
         <v>890.4415302665335</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q48">
         <v>1998.5788169358223</v>
       </c>
-      <c r="R48" t="n">
+      <c r="R48">
         <v>2032.2735465084397</v>
       </c>
-      <c r="S48" t="n">
+      <c r="S48">
         <v>6375.0428351392175</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -3021,53 +3362,53 @@
       <c r="D49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E49" t="n">
-        <v>264.9570330721245</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E49">
+        <v>264.95703307212449</v>
+      </c>
+      <c r="F49">
         <v>1.8925502362294606</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>37.85100472458921</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>238.46132976491205</v>
       </c>
-      <c r="I49" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>70.02435874049004</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>70.024358740490044</v>
+      </c>
+      <c r="K49">
         <v>1026.7085031544823</v>
       </c>
-      <c r="L49" t="n">
-        <v>443.8030303958085</v>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49">
+        <v>443.80303039580849</v>
+      </c>
+      <c r="M49">
         <v>175.0608968512251</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N49">
         <v>1022.9234026820235</v>
       </c>
-      <c r="O49" t="n">
+      <c r="O49">
         <v>1023.8696778001382</v>
       </c>
-      <c r="P49" t="n">
-        <v>709.7063385860478</v>
-      </c>
-      <c r="Q49" t="n">
+      <c r="P49">
+        <v>709.70633858604776</v>
+      </c>
+      <c r="Q49">
         <v>1297.2515830896302</v>
       </c>
-      <c r="R49" t="n">
+      <c r="R49">
         <v>1077.2089090112042</v>
       </c>
-      <c r="S49" t="n">
+      <c r="S49">
         <v>1594.3091930955054</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -3080,53 +3421,53 @@
       <c r="D50" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>2694.6916199887146</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>2.2846050190663116</v>
       </c>
-      <c r="G50" t="n">
-        <v>262.7295771926258</v>
-      </c>
-      <c r="H50" t="n">
-        <v>3032.813162810529</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J50" t="n">
+      <c r="G50">
+        <v>262.72957719262581</v>
+      </c>
+      <c r="H50">
+        <v>3032.8131628105289</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
         <v>692.2353207770924</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>19204.389790271416</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50">
         <v>10144.788587163957</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M50">
         <v>3621.098955220104</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N50">
         <v>63507.45032000533</v>
       </c>
-      <c r="O50" t="n">
-        <v>40663.68473436128</v>
-      </c>
-      <c r="P50" t="n">
+      <c r="O50">
+        <v>40663.684734361283</v>
+      </c>
+      <c r="P50">
         <v>29562.788946718072</v>
       </c>
-      <c r="Q50" t="n">
-        <v>41753.5298680359</v>
-      </c>
-      <c r="R50" t="n">
+      <c r="Q50">
+        <v>41753.529868035897</v>
+      </c>
+      <c r="R50">
         <v>64306.573269521876</v>
       </c>
-      <c r="S50" t="n">
-        <v>73077.51991281765</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="S50">
+        <v>73077.519912817646</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -3139,53 +3480,53 @@
       <c r="D51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E51" t="n">
-        <v>795.7653753379782</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>90.74517438064663</v>
-      </c>
-      <c r="H51" t="n">
+      <c r="E51">
+        <v>795.76537533797818</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>90.745174380646631</v>
+      </c>
+      <c r="H51">
         <v>1099.4126896116804</v>
       </c>
-      <c r="I51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J51" t="n">
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
         <v>266.12767486631947</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>1886.452567413058</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51">
         <v>1035.7165575944957</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M51">
         <v>356.00029949330604</v>
       </c>
-      <c r="N51" t="n">
+      <c r="N51">
         <v>17844.515012101965</v>
       </c>
-      <c r="O51" t="n">
+      <c r="O51">
         <v>16882.092633814915</v>
       </c>
-      <c r="P51" t="n">
-        <v>9939.214243941788</v>
-      </c>
-      <c r="Q51" t="n">
+      <c r="P51">
+        <v>9939.2142439417876</v>
+      </c>
+      <c r="Q51">
         <v>14642.446413731755</v>
       </c>
-      <c r="R51" t="n">
+      <c r="R51">
         <v>10794.621812081898</v>
       </c>
-      <c r="S51" t="n">
+      <c r="S51">
         <v>14695.556484147903</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -3198,58 +3539,54 @@
       <c r="D52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="R52" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="S52" t="n">
-        <v>20.0</v>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>10</v>
+      </c>
+      <c r="O52">
+        <v>6</v>
+      </c>
+      <c r="P52">
+        <v>3</v>
+      </c>
+      <c r="Q52">
+        <v>18</v>
+      </c>
+      <c r="R52">
+        <v>22</v>
+      </c>
+      <c r="S52">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/example/Initial Dataset.xlsx
+++ b/example/Initial Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/upton6_qut_edu_au/Documents/Documents/notebooks/Nanostring/DSP_EDA_Protein/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_9EEED302AF81C28B4A87139E358C5F2352187AF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7138B448-A948-E249-8065-C72B7EEA3844}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_9EEED302AF81C28B4A87139E358C5F2352187AF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3C8F045-82AE-8749-B6FC-509ED46F5AC8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -833,7 +833,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1832,7 +1832,7 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F22" t="s">
